--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -863,6 +866,9 @@
   </si>
   <si>
     <t>['4', '28', '43']</t>
+  </si>
+  <si>
+    <t>['13', '73']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1746,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT3">
         <v>1.38</v>
@@ -1850,7 +1856,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2041,7 +2047,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2232,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2614,7 +2620,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2805,7 +2811,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2895,7 +2901,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT9">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3569,7 +3575,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3951,7 +3957,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4142,7 +4148,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4333,7 +4339,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4524,7 +4530,7 @@
         <v>89</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4906,7 +4912,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -4993,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT20">
         <v>0.57</v>
@@ -5288,7 +5294,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -5479,7 +5485,7 @@
         <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5569,7 +5575,7 @@
         <v>1.14</v>
       </c>
       <c r="AT23">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5670,7 +5676,7 @@
         <v>93</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6052,7 +6058,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6816,7 +6822,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7097,7 +7103,7 @@
         <v>2.43</v>
       </c>
       <c r="AT31">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU31">
         <v>1.17</v>
@@ -7198,7 +7204,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7389,7 +7395,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7771,7 +7777,7 @@
         <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7858,10 +7864,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT35">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU35">
         <v>2.3</v>
@@ -7962,7 +7968,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8535,7 +8541,7 @@
         <v>104</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8917,7 +8923,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9108,7 +9114,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9299,7 +9305,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9681,7 +9687,7 @@
         <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9872,7 +9878,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9959,7 +9965,7 @@
         <v>0.75</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT46">
         <v>0.71</v>
@@ -10063,7 +10069,7 @@
         <v>110</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>11</v>
@@ -10254,7 +10260,7 @@
         <v>99</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10827,7 +10833,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11018,7 +11024,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11209,7 +11215,7 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11591,7 +11597,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11678,7 +11684,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT55">
         <v>0.86</v>
@@ -11782,7 +11788,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11973,7 +11979,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12355,7 +12361,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12445,7 +12451,7 @@
         <v>1.43</v>
       </c>
       <c r="AT59">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU59">
         <v>1.15</v>
@@ -12546,7 +12552,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12633,7 +12639,7 @@
         <v>0.25</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT60">
         <v>1.08</v>
@@ -12928,7 +12934,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13119,7 +13125,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13501,7 +13507,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13591,7 +13597,7 @@
         <v>0.08</v>
       </c>
       <c r="AT65">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU65">
         <v>1.1</v>
@@ -13883,7 +13889,7 @@
         <v>82</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14074,7 +14080,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14265,7 +14271,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>9</v>
@@ -14456,7 +14462,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14647,7 +14653,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14838,7 +14844,7 @@
         <v>127</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -15029,7 +15035,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15119,7 +15125,7 @@
         <v>1.67</v>
       </c>
       <c r="AT73">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU73">
         <v>1.25</v>
@@ -15220,7 +15226,7 @@
         <v>128</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>11</v>
@@ -15411,7 +15417,7 @@
         <v>129</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -15793,7 +15799,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15984,7 +15990,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16366,7 +16372,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16557,7 +16563,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16939,7 +16945,7 @@
         <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17029,7 +17035,7 @@
         <v>2.21</v>
       </c>
       <c r="AT83">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU83">
         <v>1.93</v>
@@ -17130,7 +17136,7 @@
         <v>135</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17321,7 +17327,7 @@
         <v>136</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17512,7 +17518,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17599,7 +17605,7 @@
         <v>1.17</v>
       </c>
       <c r="AS86">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17703,7 +17709,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17894,7 +17900,7 @@
         <v>139</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18085,7 +18091,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18467,7 +18473,7 @@
         <v>111</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18658,7 +18664,7 @@
         <v>82</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18849,7 +18855,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19130,7 +19136,7 @@
         <v>2.21</v>
       </c>
       <c r="AT94">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU94">
         <v>1.58</v>
@@ -19509,7 +19515,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT96">
         <v>1.77</v>
@@ -19613,7 +19619,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>16</v>
@@ -19804,7 +19810,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20568,7 +20574,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20759,7 +20765,7 @@
         <v>151</v>
       </c>
       <c r="P103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21141,7 +21147,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21228,7 +21234,7 @@
         <v>1.25</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT105">
         <v>1.43</v>
@@ -21332,7 +21338,7 @@
         <v>82</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21523,7 +21529,7 @@
         <v>153</v>
       </c>
       <c r="P107" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21613,7 +21619,7 @@
         <v>1.29</v>
       </c>
       <c r="AT107">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU107">
         <v>1.45</v>
@@ -21905,7 +21911,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22287,7 +22293,7 @@
         <v>156</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22669,7 +22675,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22756,7 +22762,7 @@
         <v>2</v>
       </c>
       <c r="AS113">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT113">
         <v>2.08</v>
@@ -22860,7 +22866,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>10</v>
@@ -23051,7 +23057,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>12</v>
@@ -23242,7 +23248,7 @@
         <v>82</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23433,7 +23439,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23624,7 +23630,7 @@
         <v>160</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23815,7 +23821,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24006,7 +24012,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24388,7 +24394,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24475,7 +24481,7 @@
         <v>1.7</v>
       </c>
       <c r="AS122">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT122">
         <v>1.38</v>
@@ -24860,7 +24866,7 @@
         <v>1.79</v>
       </c>
       <c r="AT124">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU124">
         <v>1.7</v>
@@ -25152,7 +25158,7 @@
         <v>165</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -25343,7 +25349,7 @@
         <v>166</v>
       </c>
       <c r="P127" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q127">
         <v>14</v>
@@ -25534,7 +25540,7 @@
         <v>167</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25725,7 +25731,7 @@
         <v>82</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25916,7 +25922,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26489,7 +26495,7 @@
         <v>82</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26680,7 +26686,7 @@
         <v>169</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26770,7 +26776,7 @@
         <v>1.14</v>
       </c>
       <c r="AT134">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -26871,7 +26877,7 @@
         <v>170</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>15</v>
@@ -27635,7 +27641,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27826,7 +27832,7 @@
         <v>161</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28017,7 +28023,7 @@
         <v>82</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28107,7 +28113,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT141">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU141">
         <v>1.35</v>
@@ -28208,7 +28214,7 @@
         <v>174</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28590,7 +28596,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -29163,7 +29169,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29441,7 +29447,7 @@
         <v>0.83</v>
       </c>
       <c r="AS148">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT148">
         <v>0.71</v>
@@ -29927,7 +29933,7 @@
         <v>182</v>
       </c>
       <c r="P151" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30118,7 +30124,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30309,7 +30315,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30882,7 +30888,7 @@
         <v>82</v>
       </c>
       <c r="P156" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -30969,7 +30975,7 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT156">
         <v>2.08</v>
@@ -31264,7 +31270,7 @@
         <v>82</v>
       </c>
       <c r="P158" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31455,7 +31461,7 @@
         <v>186</v>
       </c>
       <c r="P159" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q159">
         <v>14</v>
@@ -31545,7 +31551,7 @@
         <v>1.43</v>
       </c>
       <c r="AT159">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU159">
         <v>1.76</v>
@@ -31646,7 +31652,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q160">
         <v>8</v>
@@ -32028,7 +32034,7 @@
         <v>188</v>
       </c>
       <c r="P162" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32410,7 +32416,7 @@
         <v>190</v>
       </c>
       <c r="P164" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32500,7 +32506,7 @@
         <v>1.14</v>
       </c>
       <c r="AT164">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AU164">
         <v>1.41</v>
@@ -32601,7 +32607,7 @@
         <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q165">
         <v>2</v>
@@ -32792,7 +32798,7 @@
         <v>82</v>
       </c>
       <c r="P166" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q166">
         <v>9</v>
@@ -32882,7 +32888,7 @@
         <v>1.55</v>
       </c>
       <c r="AT166">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AU166">
         <v>1.38</v>
@@ -32983,7 +32989,7 @@
         <v>82</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33070,10 +33076,10 @@
         <v>1.67</v>
       </c>
       <c r="AS167">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AT167">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AU167">
         <v>1.52</v>
@@ -33125,6 +33131,197 @@
       </c>
       <c r="BK167">
         <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>4451693</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44864.41666666666</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>66</v>
+      </c>
+      <c r="H168" t="s">
+        <v>69</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>191</v>
+      </c>
+      <c r="P168" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q168">
+        <v>5</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>7</v>
+      </c>
+      <c r="T168">
+        <v>2.48</v>
+      </c>
+      <c r="U168">
+        <v>2.23</v>
+      </c>
+      <c r="V168">
+        <v>4.2</v>
+      </c>
+      <c r="W168">
+        <v>1.32</v>
+      </c>
+      <c r="X168">
+        <v>3.1</v>
+      </c>
+      <c r="Y168">
+        <v>2.75</v>
+      </c>
+      <c r="Z168">
+        <v>1.38</v>
+      </c>
+      <c r="AA168">
+        <v>7.5</v>
+      </c>
+      <c r="AB168">
+        <v>1.08</v>
+      </c>
+      <c r="AC168">
+        <v>1.9</v>
+      </c>
+      <c r="AD168">
+        <v>3.6</v>
+      </c>
+      <c r="AE168">
+        <v>3.8</v>
+      </c>
+      <c r="AF168">
+        <v>1.05</v>
+      </c>
+      <c r="AG168">
+        <v>12.5</v>
+      </c>
+      <c r="AH168">
+        <v>1.27</v>
+      </c>
+      <c r="AI168">
+        <v>3.85</v>
+      </c>
+      <c r="AJ168">
+        <v>1.88</v>
+      </c>
+      <c r="AK168">
+        <v>1.93</v>
+      </c>
+      <c r="AL168">
+        <v>1.74</v>
+      </c>
+      <c r="AM168">
+        <v>2.02</v>
+      </c>
+      <c r="AN168">
+        <v>1.26</v>
+      </c>
+      <c r="AO168">
+        <v>1.28</v>
+      </c>
+      <c r="AP168">
+        <v>1.89</v>
+      </c>
+      <c r="AQ168">
+        <v>1.71</v>
+      </c>
+      <c r="AR168">
+        <v>1.37</v>
+      </c>
+      <c r="AS168">
+        <v>1.66</v>
+      </c>
+      <c r="AT168">
+        <v>1.42</v>
+      </c>
+      <c r="AU168">
+        <v>1.74</v>
+      </c>
+      <c r="AV168">
+        <v>1.38</v>
+      </c>
+      <c r="AW168">
+        <v>3.12</v>
+      </c>
+      <c r="AX168">
+        <v>1.37</v>
+      </c>
+      <c r="AY168">
+        <v>8</v>
+      </c>
+      <c r="AZ168">
+        <v>4.26</v>
+      </c>
+      <c r="BA168">
+        <v>1.2</v>
+      </c>
+      <c r="BB168">
+        <v>1.38</v>
+      </c>
+      <c r="BC168">
+        <v>1.7</v>
+      </c>
+      <c r="BD168">
+        <v>2.1</v>
+      </c>
+      <c r="BE168">
+        <v>2.75</v>
+      </c>
+      <c r="BF168">
+        <v>9</v>
+      </c>
+      <c r="BG168">
+        <v>6</v>
+      </c>
+      <c r="BH168">
+        <v>2</v>
+      </c>
+      <c r="BI168">
+        <v>5</v>
+      </c>
+      <c r="BJ168">
+        <v>11</v>
+      </c>
+      <c r="BK168">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
